--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducle/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducle/Desktop/unitime-do-an/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934DB122-90C8-3747-8FD4-F89959902EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF76FE5-3FAE-BD40-8684-ADD6E1F81B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54560" yWindow="5300" windowWidth="22560" windowHeight="21260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10280" yWindow="10820" windowWidth="31800" windowHeight="22020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>NUM_LAB_HOURS</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>CLASS_TYPE</t>
+  </si>
+  <si>
+    <t>INSTRUCTORS</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2321,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,7 +2339,7 @@
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2361,8 +2364,11 @@
       <c r="H1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2387,8 +2393,11 @@
       <c r="H2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2413,8 +2422,11 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2439,8 +2451,11 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2465,8 +2480,11 @@
       <c r="H5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2491,8 +2509,11 @@
       <c r="H6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2514,8 +2535,11 @@
       <c r="G7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2540,8 +2564,11 @@
       <c r="H8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2562,6 +2589,9 @@
       </c>
       <c r="G9">
         <v>2</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducle/Desktop/unitime-do-an/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\BK - HCMUT\Programs\Github\unitime-do-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF76FE5-3FAE-BD40-8684-ADD6E1F81B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="10820" windowWidth="31800" windowHeight="22020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="10815" windowWidth="31800" windowHeight="22020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,6 @@
     <sheet name="Student" sheetId="9" r:id="rId4"/>
     <sheet name="Enrollment" sheetId="10" r:id="rId5"/>
     <sheet name="Class" sheetId="7" r:id="rId6"/>
-    <sheet name="NewSubject" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>NUM_LAB_HOURS</t>
   </si>
@@ -255,16 +253,31 @@
     <t>STUDENT_ID</t>
   </si>
   <si>
-    <t>CLASS_TYPE</t>
-  </si>
-  <si>
     <t>INSTRUCTORS</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>LAB_TYPE</t>
+  </si>
+  <si>
+    <t>LEC_CAPACITY</t>
+  </si>
+  <si>
+    <t>LAB_CAPACITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -609,117 +622,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="J9">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -728,21 +893,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="7" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -759,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -773,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -787,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -801,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -818,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -835,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -852,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -866,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -883,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -897,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -914,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -937,19 +1102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -960,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -971,7 +1136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -982,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -993,7 +1158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1004,7 +1169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1015,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1026,7 +1191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1037,7 +1202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1048,7 +1213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1065,19 +1230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1099,7 +1264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1110,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1121,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1132,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1143,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1154,7 +1319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1165,7 +1330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1176,7 +1341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1187,7 +1352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1198,7 +1363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1209,7 +1374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1220,7 +1385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1231,7 +1396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1242,7 +1407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1259,20 +1424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1280,10 +1446,13 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1293,8 +1462,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1302,10 +1474,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1313,10 +1488,13 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1324,10 +1502,13 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1335,10 +1516,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1346,10 +1530,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1357,10 +1544,13 @@
         <v>1</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1368,10 +1558,13 @@
         <v>1</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1379,10 +1572,13 @@
         <v>2</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1390,10 +1586,13 @@
         <v>2</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1401,10 +1600,13 @@
         <v>2</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1412,10 +1614,13 @@
         <v>2</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1423,10 +1628,13 @@
         <v>3</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1434,10 +1642,13 @@
         <v>3</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1445,10 +1656,13 @@
         <v>3</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1458,8 +1672,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1467,10 +1684,13 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1478,10 +1698,13 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1489,10 +1712,13 @@
         <v>5</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1500,10 +1726,13 @@
         <v>5</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1511,295 +1740,406 @@
         <v>5</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <v>17</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1808,22 +2148,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +2189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1875,7 +2215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1901,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1927,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1953,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1979,7 +2319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2005,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2031,7 +2371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2057,7 +2397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2083,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2109,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2135,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2161,7 +2501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2187,7 +2527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2213,7 +2553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2239,7 +2579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2265,7 +2605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2291,7 +2631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2315,283 +2655,6 @@
       </c>
       <c r="H19">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="10815" windowWidth="31800" windowHeight="22020" activeTab="5"/>
+    <workbookView xWindow="10275" yWindow="10815" windowWidth="31800" windowHeight="22020"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -625,15 +625,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -649,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -713,10 +713,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -739,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -765,10 +765,10 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -791,10 +791,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -817,10 +817,10 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -869,10 +869,10 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1425,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1756,6 +1756,9 @@
       <c r="C23">
         <v>2</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1767,6 +1770,9 @@
       <c r="C24">
         <v>2</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1778,6 +1784,9 @@
       <c r="C25">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1789,6 +1798,9 @@
       <c r="C26">
         <v>2</v>
       </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1800,16 +1812,22 @@
       <c r="C27">
         <v>2</v>
       </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,16 +1840,22 @@
       <c r="C29">
         <v>3</v>
       </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,10 +1863,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,30 +1882,39 @@
       <c r="C32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1888,258 +1924,345 @@
       <c r="C35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>16</v>
-      </c>
       <c r="C53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>16</v>
-      </c>
       <c r="C54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>16</v>
-      </c>
       <c r="C55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>17</v>
-      </c>
       <c r="C56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>17</v>
-      </c>
       <c r="C57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>17</v>
-      </c>
       <c r="C58">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2151,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\BK - HCMUT\Programs\Github\unitime-do-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducle/Desktop/unitime-do-an/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920D681-5E9A-694F-B0DE-D33539C0C165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="10815" windowWidth="31800" windowHeight="22020"/>
+    <workbookView xWindow="1460" yWindow="1840" windowWidth="31800" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -112,9 +113,6 @@
     <t>LABEL</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <t>H1-101</t>
   </si>
   <si>
@@ -272,16 +270,25 @@
   </si>
   <si>
     <t>LAB_CAPACITY</t>
+  </si>
+  <si>
+    <t>CLASS_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -622,26 +629,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -661,19 +669,19 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -702,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -731,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -754,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -780,10 +788,10 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -806,10 +814,10 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -835,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -861,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -888,26 +896,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="7" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -921,57 +930,57 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -983,12 +992,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1000,12 +1009,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1017,12 +1026,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1031,12 +1040,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1048,12 +1057,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1062,12 +1071,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1079,12 +1088,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1102,19 +1111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1133,10 +1142,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1144,10 +1153,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1155,10 +1164,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1166,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1177,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1188,10 +1197,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1199,10 +1208,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1210,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1230,19 +1239,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1253,166 +1262,166 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1424,35 +1433,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1508,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2138,7 +2147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2199,7 +2208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2271,48 +2280,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2338,7 +2347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2364,7 +2373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2390,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2416,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2442,7 +2451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2468,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2494,7 +2503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2520,7 +2529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2546,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2572,7 +2581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2598,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2624,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2650,7 +2659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -2676,7 +2685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2702,7 +2711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2728,7 +2737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2754,7 +2763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <v>2</v>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducle/Desktop/unitime-do-an/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unitime-do-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920D681-5E9A-694F-B0DE-D33539C0C165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD57D1AC-ABF8-4433-B464-FD0FFA9D153B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1840" windowWidth="31800" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1836" windowWidth="31800" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Student" sheetId="9" r:id="rId4"/>
     <sheet name="Enrollment" sheetId="10" r:id="rId5"/>
     <sheet name="Class" sheetId="7" r:id="rId6"/>
+    <sheet name="NewClass" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,17 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
-  <si>
-    <t>NUM_LAB_HOURS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>DEPARTMENT</t>
   </si>
   <si>
-    <t>NUM_LEC_HOURS</t>
-  </si>
-  <si>
     <t>lec</t>
   </si>
   <si>
@@ -263,16 +258,10 @@
     <t>5,6</t>
   </si>
   <si>
-    <t>LAB_TYPE</t>
-  </si>
-  <si>
-    <t>LEC_CAPACITY</t>
-  </si>
-  <si>
-    <t>LAB_CAPACITY</t>
-  </si>
-  <si>
     <t>CLASS_TYPE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -630,268 +619,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="J9">
         <v>8</v>
       </c>
     </row>
@@ -909,200 +745,200 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" customWidth="1"/>
     <col min="7" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1118,119 +954,119 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1246,185 +1082,185 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1436,32 +1272,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1475,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1489,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1503,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1517,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1531,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1545,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1559,7 +1395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1573,7 +1409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1587,7 +1423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1601,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1615,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1629,7 +1465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1643,7 +1479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1657,7 +1493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1671,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1685,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1699,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1713,7 +1549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1727,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1741,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1755,7 +1591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1769,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1783,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1797,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1811,7 +1647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1825,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1839,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1853,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1867,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1881,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1895,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1909,7 +1745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1923,7 +1759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1937,7 +1773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1951,7 +1787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1965,7 +1801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1979,7 +1815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1993,7 +1829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2007,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2021,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2035,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2049,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2063,7 +1899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2077,7 +1913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2091,7 +1927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2105,7 +1941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2119,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2133,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2147,7 +1983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2161,7 +1997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2175,7 +2011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2186,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2197,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2208,7 +2044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2219,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2230,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2241,7 +2077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2252,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2263,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2287,55 +2123,55 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2347,7 +2183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2361,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2373,7 +2209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2387,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2399,7 +2235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2413,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2425,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2439,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2451,7 +2287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2465,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2477,7 +2313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2491,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2503,7 +2339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2517,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2529,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2543,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2555,7 +2391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2569,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2581,7 +2417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2595,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2607,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2621,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2633,7 +2469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2647,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2659,7 +2495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2673,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -2685,7 +2521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2699,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2711,7 +2547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2725,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2737,7 +2573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2751,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2763,7 +2599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2777,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2787,6 +2623,111 @@
       </c>
       <c r="H19">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2D51E-4486-4582-9E2F-599AB3987858}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unitime-do-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\BK - HCMUT\Programs\Github\unitime-do-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD57D1AC-ABF8-4433-B464-FD0FFA9D153B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1836" windowWidth="31800" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -262,12 +261,15 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -618,21 +620,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +645,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -654,7 +656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -665,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -676,7 +678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -687,7 +689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -698,7 +700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -709,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -720,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -738,21 +740,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -783,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -797,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -811,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -828,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -845,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -862,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -876,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -893,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -907,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -924,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -947,19 +949,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -970,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -981,7 +983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -992,7 +994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1075,19 +1077,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1230,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1269,21 +1271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2099,7 +2101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2116,22 +2118,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2157,7 +2159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2631,22 +2633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2D51E-4486-4582-9E2F-599AB3987858}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2665,8 +2667,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
@@ -2674,7 +2685,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
@@ -2682,7 +2699,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -2690,7 +2713,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
@@ -2698,35 +2727,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="6"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2678,12 +2678,21 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2692,12 +2701,21 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2706,12 +2724,21 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2720,12 +2747,21 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2734,11 +2770,20 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="5"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Enrollment" sheetId="10" r:id="rId5"/>
     <sheet name="Class" sheetId="7" r:id="rId6"/>
     <sheet name="NewClass" sheetId="11" r:id="rId7"/>
+    <sheet name="Period" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -71,15 +72,9 @@
     <t>PREFERED_TIME</t>
   </si>
   <si>
-    <t>7-12,12-18</t>
-  </si>
-  <si>
     <t>KTLT</t>
   </si>
   <si>
-    <t>8-12,12-18</t>
-  </si>
-  <si>
     <t>NMDT</t>
   </si>
   <si>
@@ -264,6 +259,15 @@
   </si>
   <si>
     <t>PERIOD</t>
+  </si>
+  <si>
+    <t>BREAK_INTERVAL</t>
+  </si>
+  <si>
+    <t>7:00-12:00,12:00-18:00</t>
+  </si>
+  <si>
+    <t>8:00-12:00,12:00-18:00</t>
   </si>
 </sst>
 </file>
@@ -305,8 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -642,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,10 +677,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,29 +688,29 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -713,10 +718,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -724,10 +729,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -759,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -768,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -790,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -804,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -818,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -835,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -852,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -869,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -883,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -900,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -914,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -931,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -980,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,10 +1037,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,10 +1048,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1116,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1127,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1138,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1149,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1160,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,10 +1176,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,10 +1187,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,10 +1231,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,10 +1264,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1290,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,7 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2138,25 +2143,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2199,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2225,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2251,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2277,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2303,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2329,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2355,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2381,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2407,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2433,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2459,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2485,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2511,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -2537,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2563,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2589,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2615,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2637,14 +2642,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2653,10 +2658,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2668,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,11 +2686,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2705,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2728,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2751,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2774,16 +2779,288 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+      <c r="B18" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -626,115 +626,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
     </row>
@@ -749,7 +776,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -778,7 +805,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -792,7 +819,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -806,7 +833,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -820,7 +847,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -837,7 +864,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -854,7 +881,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -871,7 +898,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -885,7 +912,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -902,7 +929,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -916,7 +943,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -933,7 +960,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -958,7 +985,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,7 +1006,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -990,7 +1017,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1001,7 +1028,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1012,7 +1039,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1023,7 +1050,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1034,7 +1061,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1045,7 +1072,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1056,7 +1083,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1067,7 +1094,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1086,7 +1113,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1134,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1118,7 +1145,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1129,7 +1156,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1140,7 +1167,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -1151,7 +1178,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1162,7 +1189,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -1173,7 +1200,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -1184,7 +1211,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -1195,7 +1222,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -1206,7 +1233,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1217,7 +1244,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -1228,7 +1255,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -1239,7 +1266,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -1250,7 +1277,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -1261,7 +1288,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -1279,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1306,815 +1333,815 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
         <v>15</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2154,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2166,16 +2193,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -2192,16 +2219,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -2218,16 +2245,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>66</v>
@@ -2244,16 +2271,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -2270,16 +2297,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
@@ -2296,16 +2323,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>66</v>
@@ -2322,16 +2349,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>62</v>
@@ -2348,16 +2375,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>65</v>
@@ -2374,16 +2401,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -2400,16 +2427,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -2426,16 +2453,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>62</v>
@@ -2452,16 +2479,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
@@ -2478,16 +2505,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
@@ -2504,16 +2531,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>65</v>
@@ -2530,16 +2557,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -2556,16 +2583,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
@@ -2582,16 +2609,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>62</v>
@@ -2608,16 +2635,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
@@ -2642,7 +2669,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2705,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2701,7 +2728,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2724,7 +2751,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2747,7 +2774,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2770,7 +2797,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2800,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="7"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -243,15 +243,6 @@
     <t>INSTRUCTORS</t>
   </si>
   <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
     <t>CLASS_TYPE</t>
   </si>
   <si>
@@ -268,6 +259,21 @@
   </si>
   <si>
     <t>8:00-12:00,12:00-18:00</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>START_PERIOD</t>
+  </si>
+  <si>
+    <t>END_PERIOD</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -664,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2162,10 +2168,11 @@
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2185,13 +2192,13 @@
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2211,13 +2218,14 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2237,13 +2245,14 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2263,13 +2272,14 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2289,13 +2299,14 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2315,13 +2326,14 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2341,13 +2353,14 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2367,13 +2380,14 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2393,13 +2407,14 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2419,13 +2434,14 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2445,13 +2461,14 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2471,13 +2488,14 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2497,13 +2515,14 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2523,13 +2542,14 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2549,13 +2569,14 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2575,13 +2596,14 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2601,13 +2623,14 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2627,13 +2650,14 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2653,10 +2677,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2693,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2712,7 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2700,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2717,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2740,7 +2764,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2763,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2786,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2809,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2827,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2849,7 +2873,7 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="5"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>PREFERED_WEEKDAY</t>
   </si>
   <si>
-    <t>PREFERED_TIME</t>
-  </si>
-  <si>
     <t>KTLT</t>
   </si>
   <si>
@@ -255,12 +252,6 @@
     <t>BREAK_INTERVAL</t>
   </si>
   <si>
-    <t>7:00-12:00,12:00-18:00</t>
-  </si>
-  <si>
-    <t>8:00-12:00,12:00-18:00</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -274,6 +265,15 @@
   </si>
   <si>
     <t>END_PERIOD</t>
+  </si>
+  <si>
+    <t>PREFERED_PERIOD</t>
+  </si>
+  <si>
+    <t>2-6,7-12</t>
+  </si>
+  <si>
+    <t>3-6,7-12</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -748,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -762,10 +762,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -873,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -890,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -921,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -952,10 +952,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -969,10 +969,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1198,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -2177,25 +2177,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2482,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2709,22 +2709,22 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2784,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2807,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2830,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2867,13 +2867,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -75,9 +75,6 @@
     <t>NMDT</t>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
     <t>MDT</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>3-6,7-12</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -748,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -762,10 +762,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -782,7 +782,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -873,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -890,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -921,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -952,10 +952,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -969,10 +969,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1198,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2177,25 +2177,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
       <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -2266,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2293,10 +2293,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2320,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -2347,10 +2347,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -2374,10 +2374,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2401,10 +2401,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -2428,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2482,10 +2482,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2509,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2536,10 +2536,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2563,10 +2563,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -2644,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2671,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -2693,7 +2693,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2709,22 +2709,22 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2761,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2784,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2807,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2830,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2867,13 +2867,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>2,3,4</t>
+  </si>
+  <si>
+    <t>ENTRANTS</t>
+  </si>
+  <si>
+    <t>SCALEUP_CLASS</t>
   </si>
 </sst>
 </file>
@@ -2690,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2701,10 +2707,11 @@
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2721,13 +2728,16 @@
         <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2773,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2796,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2844,6 +2854,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="6"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -2862,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="7"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -280,6 +280,60 @@
   </si>
   <si>
     <t>SCALEUP_CLASS</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>7:00</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>22:10</t>
   </si>
 </sst>
 </file>
@@ -321,9 +375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +843,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2165,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2754,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2860,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2873,7 +2928,7 @@
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2887,211 +2942,212 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.29166666666666702</v>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.33333333333333298</v>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.375</v>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.41666666666666702</v>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.45833333333333298</v>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.5</v>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.54166666666666696</v>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.58333333333333304</v>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.625</v>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.66666666666666696</v>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.70833333333333304</v>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.75</v>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.78472222222222221</v>
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.81944444444444453</v>
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.85416666666666663</v>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3101,11 +3157,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.88888888888888884</v>
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3115,11 +3171,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.92361111111111116</v>
+      <c r="B18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D18">
         <v>0</v>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="5"/>
+    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -237,9 +237,6 @@
     <t>INSTRUCTORS</t>
   </si>
   <si>
-    <t>CLASS_TYPE</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -276,64 +273,76 @@
     <t>2,3,4</t>
   </si>
   <si>
+    <t>SCALEUP_CLASS</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>7:00</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>PREFERED_CAMPUS</t>
+  </si>
+  <si>
+    <t>PREFERED_ROOM</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
     <t>ENTRANTS</t>
   </si>
   <si>
-    <t>SCALEUP_CLASS</t>
-  </si>
-  <si>
-    <t>6:00</t>
-  </si>
-  <si>
-    <t>7:00</t>
-  </si>
-  <si>
-    <t>8:00</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>19:40</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>21:20</t>
-  </si>
-  <si>
-    <t>22:10</t>
+    <t>UNRESTRICTED</t>
   </si>
 </sst>
 </file>
@@ -731,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,20 +849,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="7" max="8" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="8" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -861,184 +870,220 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2220,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2253,10 +2298,10 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,22 +2796,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2774,117 +2823,138 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
         <v>78</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2894,17 +2964,20 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +3012,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,10 +3020,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2961,10 +3034,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2975,10 +3048,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2989,10 +3062,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3003,10 +3076,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3017,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3031,10 +3104,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3045,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -3059,10 +3132,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3074,10 +3147,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3088,10 +3161,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3102,10 +3175,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3116,10 +3189,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3130,10 +3203,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3144,10 +3217,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3158,10 +3231,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3172,10 +3245,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>0</v>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\BK - HCMUT\Programs\Github\unitime-do-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duc.le/Desktop/school/unitime-do-an/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F930D8D-0C5E-7744-A45C-A1E1C759B701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1830" windowWidth="31800" windowHeight="22020" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,28 @@
     <sheet name="NewClass" sheetId="11" r:id="rId7"/>
     <sheet name="Period" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -343,12 +355,15 @@
   </si>
   <si>
     <t>UNRESTRICTED</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -384,10 +399,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,21 +717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -743,7 +759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -757,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -771,7 +787,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -785,7 +801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -799,7 +815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -813,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -827,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -848,21 +864,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="8" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -882,7 +898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -899,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -916,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -933,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -973,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -993,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1010,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1047,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1093,19 +1109,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1127,7 +1143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1138,7 +1154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1149,7 +1165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1160,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1182,7 +1198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1204,7 +1220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1221,19 +1237,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1255,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1266,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1277,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1288,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1299,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1310,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1332,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1343,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1354,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1365,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1376,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1398,7 +1414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1415,21 +1431,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1457,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1471,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1499,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1513,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1527,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1541,7 +1557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1555,7 +1571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1569,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1583,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1597,7 +1613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1639,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1653,7 +1669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1667,7 +1683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1709,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1723,7 +1739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1737,7 +1753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1751,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1765,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1779,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1821,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1835,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1849,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1863,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1891,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1919,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1933,7 +1949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1947,7 +1963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1961,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1975,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2003,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2017,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2031,7 +2047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2059,7 +2075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2073,7 +2089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2101,7 +2117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2115,7 +2131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2129,7 +2145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2143,7 +2159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2157,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2168,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2179,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2190,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2212,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2223,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2234,7 +2250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2245,7 +2261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2262,23 +2278,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2331,7 +2347,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2358,7 +2374,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2385,7 +2401,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2412,7 +2428,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2439,7 +2455,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2466,7 +2482,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2493,7 +2509,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2520,7 +2536,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2547,7 +2563,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2574,7 +2590,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2601,7 +2617,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2628,7 +2644,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2655,7 +2671,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2682,7 +2698,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2709,7 +2725,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2736,7 +2752,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2763,7 +2779,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2795,27 +2811,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2866,8 +2882,8 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="F2" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -2875,8 +2891,12 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2901,8 +2921,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2927,8 +2950,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2953,8 +2979,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2978,6 +3007,9 @@
       </c>
       <c r="H6">
         <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2987,21 +3019,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3029,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3043,7 +3075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3057,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3071,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3085,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3099,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3113,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3127,7 +3159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3142,7 +3174,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3156,7 +3188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3170,7 +3202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3184,7 +3216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3198,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3212,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3226,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3240,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duc.le/Desktop/school/unitime-do-an/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\BK - HCMUT\Programs\Github\unitime-do-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F930D8D-0C5E-7744-A45C-A1E1C759B701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="34560" windowHeight="20235" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -363,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -717,21 +716,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -745,7 +744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -759,7 +758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -773,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -787,7 +786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,7 +800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -815,7 +814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -843,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -864,21 +863,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="8" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -898,7 +897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -915,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -932,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -949,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -969,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -989,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1109,19 +1108,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1237,19 +1236,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1431,21 +1430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2278,23 +2277,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2347,7 +2346,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2374,7 +2373,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2401,7 +2400,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2428,7 +2427,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2455,7 +2454,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2482,7 +2481,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2509,7 +2508,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2536,7 +2535,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2563,7 +2562,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2590,7 +2589,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2617,7 +2616,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2644,7 +2643,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2671,7 +2670,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2698,7 +2697,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2725,7 +2724,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2752,7 +2751,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2779,7 +2778,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2811,27 +2810,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2891,12 +2890,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2921,11 +2916,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2950,11 +2942,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2979,11 +2968,8 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3007,9 +2993,6 @@
       </c>
       <c r="H6">
         <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3019,21 +3002,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3047,7 +3030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3061,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3075,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3089,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3103,7 +3086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3117,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3131,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3145,7 +3128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3159,7 +3142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3174,7 +3157,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3188,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3202,7 +3185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3216,7 +3199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3230,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3244,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3258,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3272,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -21,7 +21,7 @@
     <sheet name="NewClass" sheetId="11" r:id="rId7"/>
     <sheet name="Period" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -350,13 +350,16 @@
     <t>CAMPUS</t>
   </si>
   <si>
-    <t>ENTRANTS</t>
-  </si>
-  <si>
     <t>UNRESTRICTED</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>MIN_ENTRANTS</t>
+  </si>
+  <si>
+    <t>MAX_ENTRANTS</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1243,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1431,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2271,6 +2274,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2281,7 +2306,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2811,26 +2836,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2841,57 +2866,63 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2905,19 +2936,25 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>77</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2933,17 +2970,20 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>78</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2959,17 +2999,20 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>77</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2985,13 +3028,42 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -275,15 +275,6 @@
     <t>PREFERED_PERIOD</t>
   </si>
   <si>
-    <t>2-6,7-12</t>
-  </si>
-  <si>
-    <t>3-6,7-12</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
     <t>SCALEUP_CLASS</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
   </si>
   <si>
     <t>UNRESTRICTED</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>MIN_ENTRANTS</t>
@@ -401,11 +389,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +875,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1436,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -2836,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2866,10 +2853,10 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
         <v>69</v>
@@ -2881,16 +2868,16 @@
         <v>76</v>
       </c>
       <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2898,172 +2885,24 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3107,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3121,10 +2960,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3135,10 +2974,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -3149,10 +2988,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3163,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3177,10 +3016,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3191,10 +3030,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3205,10 +3044,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -3219,10 +3058,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3234,10 +3073,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3248,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3262,10 +3101,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3276,10 +3115,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3290,10 +3129,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3304,10 +3143,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3318,10 +3157,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3332,10 +3171,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>0</v>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -275,6 +275,15 @@
     <t>PREFERED_PERIOD</t>
   </si>
   <si>
+    <t>2-6,7-12</t>
+  </si>
+  <si>
+    <t>3-6,7-12</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
     <t>SCALEUP_CLASS</t>
   </si>
   <si>
@@ -342,6 +351,9 @@
   </si>
   <si>
     <t>UNRESTRICTED</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>MIN_ENTRANTS</t>
@@ -389,10 +401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1423,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -2293,7 +2306,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2823,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2853,10 +2866,10 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>69</v>
@@ -2868,16 +2881,16 @@
         <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2885,24 +2898,172 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="L2" t="b">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2946,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2960,10 +3121,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2974,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2988,10 +3149,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3002,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3016,10 +3177,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3030,10 +3191,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3044,10 +3205,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -3058,10 +3219,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3073,10 +3234,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3087,10 +3248,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3101,10 +3262,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3115,10 +3276,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3129,10 +3290,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3143,10 +3304,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3157,10 +3318,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3171,10 +3332,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>0</v>

--- a/Timetable-template.xlsx
+++ b/Timetable-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\BK - HCMUT\Programs\Github\unitime-do-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duc.le/Desktop/school/unitime-do-an/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC122494-8F88-234E-9CF1-BE9E9359E6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="34560" windowHeight="20235" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -26,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -62,15 +52,6 @@
     <t>CAPACITY</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>GT1</t>
   </si>
   <si>
@@ -89,12 +70,6 @@
     <t>MDT</t>
   </si>
   <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>HDC</t>
   </si>
   <si>
@@ -140,78 +115,6 @@
     <t>B1-201</t>
   </si>
   <si>
-    <t>C.O.A.</t>
-  </si>
-  <si>
-    <t>C.O.B.</t>
-  </si>
-  <si>
-    <t>C.O.C.</t>
-  </si>
-  <si>
-    <t>C.O.E.</t>
-  </si>
-  <si>
-    <t>C.O.D.</t>
-  </si>
-  <si>
-    <t>E.E.G.</t>
-  </si>
-  <si>
-    <t>E.E.H.</t>
-  </si>
-  <si>
-    <t>E.E.I.</t>
-  </si>
-  <si>
-    <t>E.E.K.</t>
-  </si>
-  <si>
-    <t>E.E.L.</t>
-  </si>
-  <si>
-    <t>N.V.A.</t>
-  </si>
-  <si>
-    <t>T.T.B.</t>
-  </si>
-  <si>
-    <t>L.T.C.</t>
-  </si>
-  <si>
-    <t>T.N.D.</t>
-  </si>
-  <si>
-    <t>L.V.E.</t>
-  </si>
-  <si>
-    <t>D.T.G.</t>
-  </si>
-  <si>
-    <t>P.M.H.</t>
-  </si>
-  <si>
-    <t>P.T.I.</t>
-  </si>
-  <si>
-    <t>N.V.K.</t>
-  </si>
-  <si>
-    <t>C.H.M.</t>
-  </si>
-  <si>
-    <t>C.H.N.</t>
-  </si>
-  <si>
-    <t>C.H.O.</t>
-  </si>
-  <si>
-    <t>C.H.P.</t>
-  </si>
-  <si>
-    <t>C.H.Q.</t>
-  </si>
-  <si>
     <t>SUBJECT_ID</t>
   </si>
   <si>
@@ -360,12 +263,96 @@
   </si>
   <si>
     <t>MAX_ENTRANTS</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Trần Thị Bình</t>
+  </si>
+  <si>
+    <t>Lê Hồng Cường</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Dương</t>
+  </si>
+  <si>
+    <t>Vũ Quốc Đạt</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hà</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Khang</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Hoa</t>
+  </si>
+  <si>
+    <t>Trương Quang Linh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Mai</t>
+  </si>
+  <si>
+    <t>Ngô Huy Nam</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Trần Văn Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>Võ Văn Tuấn</t>
+  </si>
+  <si>
+    <t>Điện - Điện tử</t>
+  </si>
+  <si>
+    <t>Hoá</t>
+  </si>
+  <si>
+    <t>Môi trường</t>
+  </si>
+  <si>
+    <t>Máy tính</t>
+  </si>
+  <si>
+    <t>Phan Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Đinh Văn Bình</t>
+  </si>
+  <si>
+    <t>Trần Thị Cẩm Châu</t>
+  </si>
+  <si>
+    <t>Lê Văn Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương Hoa</t>
+  </si>
+  <si>
+    <t>Lý Minh Khánh</t>
+  </si>
+  <si>
+    <t>Vương Thanh Lâm</t>
+  </si>
+  <si>
+    <t>Hà Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Ngô Quang Minh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,11 +388,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,21 +709,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -744,116 +734,116 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -866,29 +856,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="8" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -897,15 +887,15 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -917,12 +907,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -934,12 +924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -951,18 +941,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -971,18 +961,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -991,18 +981,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1011,12 +1001,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1028,18 +1018,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1048,12 +1038,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1065,18 +1055,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1085,18 +1075,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1111,19 +1101,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1134,103 +1124,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1239,19 +1229,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1262,169 +1253,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1433,35 +1424,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1475,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1489,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1503,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1517,7 +1508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1531,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1545,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1559,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1573,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1587,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1601,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1615,7 +1606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1629,7 +1620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1643,7 +1634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1657,7 +1648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1671,7 +1662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1685,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1699,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1713,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1727,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1741,7 +1732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1755,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1769,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1783,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1797,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1811,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1825,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1839,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1853,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1867,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1881,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1895,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1909,7 +1900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1923,7 +1914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1937,7 +1928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1951,7 +1942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1979,7 +1970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1993,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2007,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2021,7 +2012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2035,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2049,7 +2040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2063,7 +2054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2077,7 +2068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2091,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2105,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2119,7 +2110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2133,7 +2124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2147,7 +2138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2161,7 +2152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2175,7 +2166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2186,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2197,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2208,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2219,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2230,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2241,7 +2232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2252,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2263,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2274,7 +2265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2285,7 +2276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2302,49 +2293,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2358,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2371,7 +2362,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2385,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2398,7 +2389,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2412,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2425,7 +2416,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2439,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2452,7 +2443,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2466,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2479,7 +2470,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2493,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2506,7 +2497,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2520,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2533,7 +2524,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2547,7 +2538,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2560,7 +2551,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2574,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2587,7 +2578,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2601,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2614,7 +2605,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2628,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -2641,7 +2632,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2655,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -2668,7 +2659,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2682,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -2695,7 +2686,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2709,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2722,7 +2713,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2736,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -2749,7 +2740,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2763,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -2776,7 +2767,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2803,7 +2794,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2817,7 +2808,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2835,65 +2826,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2913,16 +2904,16 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2942,10 +2933,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2954,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2974,16 +2965,16 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3003,16 +2994,16 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3032,16 +3023,16 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3074,268 +3065,268 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>0</v>
